--- a/config/_TableConfig/!tables__.xlsx
+++ b/config/_TableConfig/!tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="14390"/>
+    <workbookView windowWidth="31050" windowHeight="11380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Game</t>
+    <t>Game.TbGlobal</t>
   </si>
   <si>
     <t>Global</t>
@@ -125,10 +125,10 @@
     <t>one</t>
   </si>
   <si>
-    <t>Character</t>
-  </si>
-  <si>
-    <t>TbWeaponType</t>
+    <t>Character.TbWeaponType</t>
+  </si>
+  <si>
+    <t>WeaponType</t>
   </si>
   <si>
     <t>Character.WeaponType-武器类型.xlsx</t>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
